--- a/صيدليات دكتور مصطفي طلعت_2026-01-16_20-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-16_20-49.xlsx
@@ -50,18 +50,24 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>AMARYL 3 MG 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>AMARYL 3 MG 30 TABS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>AMBEZIM-G 30 F.C. TABS.</t>
-  </si>
-  <si>
     <t>AMRIZOLE-N 5 VAG. SUPP</t>
   </si>
   <si>
@@ -80,6 +86,9 @@
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
+    <t>BRIVAFUTAL 100 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
     <t>BRUFEN 100MG/5ML SYRUP 150ML</t>
   </si>
   <si>
@@ -110,9 +119,21 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>27:0</t>
+  </si>
+  <si>
     <t>CIPALAFIL 5MG 30 TABS.</t>
   </si>
   <si>
+    <t>CIPRAMALINE 10 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -128,6 +149,9 @@
     <t>DELTACLAV 642.9MG/5ML SUSP.</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -146,6 +170,12 @@
     <t>EMPACOZA TRIO XR 10/5/1000MG 30 TAB</t>
   </si>
   <si>
+    <t>EPICEPHIN 500MG I.M. VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>EPICOPRED 5 MG 30 ORODISPERSIBLE TABS.</t>
   </si>
   <si>
@@ -173,9 +203,6 @@
     <t>FLUREST N 20 TABS</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>FORFLOZIN 10MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -185,24 +212,24 @@
     <t>GANATON 50 MG 30 F.C.TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>GLIMET FORTE 5/800 MG 30 F.C.TAB.</t>
   </si>
   <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 30 GM</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>KENACOMB TOPICAL CREAM 30 GM</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>1:4</t>
+  </si>
+  <si>
     <t>0:5</t>
   </si>
   <si>
@@ -263,12 +290,12 @@
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>PAROFEN 30 OBLONG TAB.</t>
   </si>
   <si>
+    <t>PECTOL عسل ولمون</t>
+  </si>
+  <si>
     <t>PEDICORT 5MG/5ML SYP. 100 ML</t>
   </si>
   <si>
@@ -284,6 +311,9 @@
     <t>2:6</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
     <t>RESTOHERB SYRUP</t>
   </si>
   <si>
@@ -293,6 +323,9 @@
     <t>SAFE TOP SYRUP</t>
   </si>
   <si>
+    <t>SELECTIVAL 20 CAPSULES</t>
+  </si>
+  <si>
     <t>SOFENACIN 5MG 30 F.C. TAB</t>
   </si>
   <si>
@@ -344,6 +377,18 @@
     <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
   </si>
   <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>UNIFUNGI 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -380,13 +425,13 @@
     <t>رول اون ريكسونا25</t>
   </si>
   <si>
-    <t>11:0</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>-1:0</t>
+    <t>-6:0</t>
+  </si>
+  <si>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1055,11 +1100,11 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="25.5" customHeight="1">
@@ -1067,7 +1112,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1075,7 +1120,7 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1093,7 +1138,7 @@
         <v>5</v>
       </c>
       <c t="s" r="B8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1101,7 +1146,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -1119,7 +1164,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1127,7 +1172,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -1137,7 +1182,7 @@
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1145,7 +1190,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1163,7 +1208,7 @@
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1171,7 +1216,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1179,7 +1224,7 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1197,7 +1242,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B12" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1205,13 +1250,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>-44</v>
+        <v>327</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1223,7 +1268,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1231,13 +1276,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>0</v>
+        <v>-44</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1249,7 +1294,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1257,13 +1302,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1275,7 +1320,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1283,17 +1328,17 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1301,7 +1346,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1309,17 +1354,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>340</v>
+        <v>66</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1327,7 +1372,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1335,13 +1380,13 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>13</v>
+        <v>340</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
@@ -1353,7 +1398,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1361,13 +1406,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1379,7 +1424,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1387,17 +1432,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1405,7 +1450,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1413,17 +1458,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1431,7 +1476,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1439,17 +1484,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1457,7 +1502,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1465,17 +1510,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>60.670000000000002</v>
+        <v>22</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1483,7 +1528,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1491,13 +1536,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1509,7 +1554,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1517,7 +1562,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1527,7 +1572,7 @@
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1535,7 +1580,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1543,17 +1588,17 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>34</v>
+        <v>60.670000000000002</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1561,7 +1606,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1569,17 +1614,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>128.66999999999999</v>
+        <v>108</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1587,7 +1632,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1595,13 +1640,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>159.59999999999999</v>
+        <v>144</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1613,7 +1658,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1621,13 +1666,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1639,7 +1684,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1647,17 +1692,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1665,7 +1710,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1673,13 +1718,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>38</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1691,7 +1736,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1699,17 +1744,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>26</v>
+        <v>159.59999999999999</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1717,7 +1762,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1725,17 +1770,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1743,7 +1788,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1751,17 +1796,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1769,7 +1814,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1777,13 +1822,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>197</v>
+        <v>23</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1795,7 +1840,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1803,17 +1848,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1821,7 +1866,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1829,13 +1874,13 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
@@ -1847,7 +1892,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1855,17 +1900,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1873,7 +1918,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1881,13 +1926,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -1899,7 +1944,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1907,17 +1952,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1925,7 +1970,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1933,17 +1978,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1951,7 +1996,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1959,13 +2004,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1977,7 +2022,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1985,17 +2030,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>51.299999999999997</v>
+        <v>16</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2003,7 +2048,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2011,17 +2056,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>38.5</v>
+        <v>102</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2029,7 +2074,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2037,17 +2082,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -2055,7 +2100,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2063,17 +2108,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2081,7 +2126,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2089,13 +2134,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2115,17 +2160,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>70</v>
+        <v>108.3</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2141,13 +2186,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>35</v>
+        <v>38.5</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2159,7 +2204,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2167,17 +2212,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2185,7 +2230,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2193,13 +2238,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2211,7 +2256,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2219,13 +2264,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2237,7 +2282,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2245,17 +2290,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2263,7 +2308,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2271,17 +2316,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2289,7 +2334,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2297,13 +2342,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2315,7 +2360,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2323,17 +2368,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2341,7 +2386,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2349,17 +2394,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2367,7 +2412,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2375,17 +2420,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2393,7 +2438,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2401,17 +2446,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2419,7 +2464,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2427,17 +2472,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2445,7 +2490,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2453,17 +2498,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2471,7 +2516,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2479,13 +2524,13 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
@@ -2497,7 +2542,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2505,17 +2550,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>450</v>
+        <v>24</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>61</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2523,7 +2568,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2531,17 +2576,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2549,7 +2594,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2557,17 +2602,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>39.899999999999999</v>
+        <v>31</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2575,7 +2620,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2583,13 +2628,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2601,7 +2646,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2609,13 +2654,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>80.75</v>
+        <v>25</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2627,7 +2672,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2635,13 +2680,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2653,7 +2698,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2661,17 +2706,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>47</v>
+        <v>450</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2679,7 +2724,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2687,17 +2732,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>-86.5</v>
+        <v>85</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2705,7 +2750,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2713,17 +2758,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>15</v>
+        <v>99</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>36</v>
+        <v>39.899999999999999</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2731,7 +2776,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2739,17 +2784,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2757,7 +2802,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2765,17 +2810,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2783,7 +2828,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2791,13 +2836,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>90</v>
+        <v>80.75</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2809,7 +2854,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2823,11 +2868,11 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2835,7 +2880,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2843,17 +2888,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>-23</v>
+        <v>100</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2861,7 +2906,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2869,17 +2914,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2887,7 +2932,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2895,13 +2940,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>58</v>
+        <v>-86.5</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2913,7 +2958,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2921,17 +2966,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>92.120000000000005</v>
+        <v>36</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2939,7 +2984,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2947,17 +2992,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2965,7 +3010,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2973,17 +3018,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2991,7 +3036,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2999,13 +3044,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3017,7 +3062,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3025,17 +3070,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3043,7 +3088,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3051,17 +3096,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>384</v>
+        <v>-23</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3069,7 +3114,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3083,7 +3128,7 @@
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3095,7 +3140,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3103,17 +3148,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>128</v>
+        <v>58</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3121,7 +3166,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3129,17 +3174,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>26</v>
+        <v>92.120000000000005</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3147,7 +3192,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3155,17 +3200,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3173,7 +3218,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3181,17 +3226,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3199,7 +3244,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3207,13 +3252,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3225,7 +3270,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3233,13 +3278,13 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
@@ -3251,7 +3296,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3259,17 +3304,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>60</v>
+        <v>528</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3277,7 +3322,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3285,13 +3330,13 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
@@ -3317,11 +3362,11 @@
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3337,17 +3382,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3355,7 +3400,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3363,17 +3408,17 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="24.75" customHeight="1">
@@ -3381,7 +3426,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3389,17 +3434,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>54</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3407,7 +3452,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3415,51 +3460,311 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
-      <c r="K98" s="10">
-        <v>5376.5600000000004</v>
-      </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-    </row>
-    <row r="99" ht="17.25" customHeight="1">
-      <c t="s" r="A99" s="11">
+      <c r="A98" s="6">
+        <v>95</v>
+      </c>
+      <c t="s" r="B98" s="7">
+        <v>131</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c t="s" r="H98" s="8">
         <v>132</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c t="s" r="F99" s="12">
+      <c r="I98" s="8"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="9">
+        <v>5</v>
+      </c>
+      <c r="M98" s="9"/>
+      <c t="s" r="N98" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" ht="24.75" customHeight="1">
+      <c r="A99" s="6">
+        <v>96</v>
+      </c>
+      <c t="s" r="B99" s="7">
         <v>133</v>
       </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c t="s" r="I99" s="14">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c t="s" r="H99" s="8">
+        <v>9</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="9">
+        <v>69</v>
+      </c>
+      <c r="M99" s="9"/>
+      <c t="s" r="N99" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
         <v>134</v>
       </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
+        <v>9</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>80</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" ht="24.75" customHeight="1">
+      <c r="A101" s="6">
+        <v>98</v>
+      </c>
+      <c t="s" r="B101" s="7">
+        <v>135</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c t="s" r="H101" s="8">
+        <v>136</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="9">
+        <v>60</v>
+      </c>
+      <c r="M101" s="9"/>
+      <c t="s" r="N101" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>99</v>
+      </c>
+      <c t="s" r="B102" s="7">
+        <v>137</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c t="s" r="H102" s="8">
+        <v>122</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="9">
+        <v>35</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c t="s" r="N102" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="A103" s="6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B103" s="7">
+        <v>138</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c t="s" r="H103" s="8">
+        <v>139</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="9">
+        <v>66</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c t="s" r="N103" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" ht="24.75" customHeight="1">
+      <c r="A104" s="6">
+        <v>101</v>
+      </c>
+      <c t="s" r="B104" s="7">
+        <v>141</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c t="s" r="H104" s="8">
+        <v>142</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="9">
+        <v>8</v>
+      </c>
+      <c r="M104" s="9"/>
+      <c t="s" r="N104" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" ht="25.5" customHeight="1">
+      <c r="A105" s="6">
+        <v>102</v>
+      </c>
+      <c t="s" r="B105" s="7">
+        <v>143</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c t="s" r="H105" s="8">
+        <v>144</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="9">
+        <v>14</v>
+      </c>
+      <c r="M105" s="9"/>
+      <c t="s" r="N105" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="106" ht="24.75" customHeight="1">
+      <c r="A106" s="6">
+        <v>103</v>
+      </c>
+      <c t="s" r="B106" s="7">
+        <v>145</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c t="s" r="H106" s="8">
+        <v>70</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="9">
+        <v>48</v>
+      </c>
+      <c r="M106" s="9"/>
+      <c t="s" r="N106" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="6">
+        <v>104</v>
+      </c>
+      <c t="s" r="B107" s="7">
+        <v>146</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c t="s" r="H107" s="8">
+        <v>89</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="9">
+        <v>20</v>
+      </c>
+      <c r="M107" s="9"/>
+      <c t="s" r="N107" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" ht="25.5" customHeight="1">
+      <c r="K108" s="10">
+        <v>7161.5600000000004</v>
+      </c>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+    </row>
+    <row r="109" ht="17.25" customHeight="1">
+      <c t="s" r="A109" s="11">
+        <v>147</v>
+      </c>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c t="s" r="F109" s="12">
+        <v>148</v>
+      </c>
+      <c r="G109" s="12"/>
+      <c r="H109" s="13"/>
+      <c t="s" r="I109" s="14">
+        <v>149</v>
+      </c>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
+      <c r="N109" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="293">
+  <mergeCells count="323">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3749,10 +4054,40 @@
     <mergeCell ref="B97:G97"/>
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:N99"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="K108:N108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="I109:N109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
